--- a/Nick/Project5 Beoordeling.xlsx
+++ b/Nick/Project5 Beoordeling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\leerjaar 2\github\Project5\Nick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2887201-C49A-460C-BE0C-089CEBD16B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A67FF-FEB1-4873-B075-A7EBDBAF166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Groep1</t>
   </si>
@@ -848,10 +848,10 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -904,7 +904,7 @@
       </c>
       <c r="E5" s="8" t="str">
         <f>IF(COUNTIF(E6:E12,"v")=7,"V","O")</f>
-        <v>O</v>
+        <v>V</v>
       </c>
       <c r="F5" s="8" t="str">
         <f>IF(COUNTIF(F6:F12,"v")=7,"V","O")</f>
@@ -969,7 +969,9 @@
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
@@ -977,7 +979,9 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>

--- a/Nick/Project5 Beoordeling.xlsx
+++ b/Nick/Project5 Beoordeling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\leerjaar 2\github\Project5\Nick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A67FF-FEB1-4873-B075-A7EBDBAF166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D77EE44-EAEE-460A-8ACF-9E6332EB2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
